--- a/biology/Zoologie/Courlis_à_bec_grêle/Courlis_à_bec_grêle.xlsx
+++ b/biology/Zoologie/Courlis_à_bec_grêle/Courlis_à_bec_grêle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Courlis_%C3%A0_bec_gr%C3%AAle</t>
+          <t>Courlis_à_bec_grêle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Numenius tenuirostris
 Le Courlis à bec grêle (Numenius tenuirostris) est une espèce d'oiseaux limicoles extrêmement rare vivant l'été en Sibérie et hivernant dans certaines zones de la mer Méditerranée (quelques observations au cours des dernières décennies). La population mondiale du Courlis à bec grêle est estimée à moins de 50 individus.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Courlis_%C3%A0_bec_gr%C3%AAle</t>
+          <t>Courlis_à_bec_grêle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce mesure 36-41 cm, ce qui lui donne une taille proche de celle du Courlis corlieu. Il se distingue de celui-ci et du Courlis cendré (plus grand) par son bec très fin, ses tâches noires presque rondes (en forme de gouttes) sur la poitrine et les flancs et son croupion et sa queue plus clairs. Il est à noter que le juvénile n'a pas (ou très peu) de taches en forme de gouttes sur les flancs. 
-Le cri de contact de cet oiseau est un "kou-lii" qui ressemble au cri du Courlis cendré en étant plus doux, plus aigu et plus rapide (parfois devenant un trille). En vol, il émet le cri d'alarme "kou-i"[1].
+Le cri de contact de cet oiseau est un "kou-lii" qui ressemble au cri du Courlis cendré en étant plus doux, plus aigu et plus rapide (parfois devenant un trille). En vol, il émet le cri d'alarme "kou-i".
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Courlis_%C3%A0_bec_gr%C3%AAle</t>
+          <t>Courlis_à_bec_grêle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau nichait en Sibérie et hivernait notamment au Maroc, dans la lagune de Merja Zerga[2]. Des données hivernales existent également dans de nombreux pays méditerranéens. Des données incertaines récentes en Mésopotamie et dans le Golfe Persique suggéraient l'existence de sites d'hivernage inconnus mais les recherches entreprises n'ont pour le moment pas abouti[3]. En migration, l'espèce fréquentait l'Europe de l'Est, de l'Italie à la Grèce, et était même régulière dans le midi de la France au XIXe siècle[4]. Il franchit encore la Méditerranée avec une halte sur le site des Salines d'Ulcinj (Monténégro), mais en 2009-2019 ce dernier est lui-même menacé par des projets immobiliers et touristiques[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau nichait en Sibérie et hivernait notamment au Maroc, dans la lagune de Merja Zerga. Des données hivernales existent également dans de nombreux pays méditerranéens. Des données incertaines récentes en Mésopotamie et dans le Golfe Persique suggéraient l'existence de sites d'hivernage inconnus mais les recherches entreprises n'ont pour le moment pas abouti. En migration, l'espèce fréquentait l'Europe de l'Est, de l'Italie à la Grèce, et était même régulière dans le midi de la France au XIXe siècle. Il franchit encore la Méditerranée avec une halte sur le site des Salines d'Ulcinj (Monténégro), mais en 2009-2019 ce dernier est lui-même menacé par des projets immobiliers et touristiques,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Courlis_%C3%A0_bec_gr%C3%AAle</t>
+          <t>Courlis_à_bec_grêle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Comportement, nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ne connaît pratiquement rien de cet oiseau. Son nid ne fut trouvé qu'à quelques reprises, en Sibérie. Il nichait en petites colonies et pondait ses œufs en mai[3]. En hiver, l'espèce était grégaire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne connaît pratiquement rien de cet oiseau. Son nid ne fut trouvé qu'à quelques reprises, en Sibérie. Il nichait en petites colonies et pondait ses œufs en mai. En hiver, l'espèce était grégaire.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Courlis_%C3%A0_bec_gr%C3%AAle</t>
+          <t>Courlis_à_bec_grêle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les seuls nids qui furent trouvés étaient situés dans une zone de transition, au nord de la steppe et de la forêt et au sud de la taïga[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les seuls nids qui furent trouvés étaient situés dans une zone de transition, au nord de la steppe et de la forêt et au sud de la taïga.
 En migration et en hivernage, l'espèce fréquentait les milieux humides.
 </t>
         </is>
